--- a/econometric_models_and_vars/FSOI_Variables_List.xlsx
+++ b/econometric_models_and_vars/FSOI_Variables_List.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="522">
   <si>
     <t>Class</t>
   </si>
@@ -28,9 +28,18 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
     <t>Explanation</t>
   </si>
   <si>
+    <t>Difficulty processing (1:easy-5:expert)</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
     <t>Land Use</t>
   </si>
   <si>
@@ -40,19 +49,32 @@
     <t>Total agricultural land</t>
   </si>
   <si>
-    <t>Toplam işlenen tarım alanı (hektar)</t>
+    <t>Cultivated land area (hectare)</t>
   </si>
   <si>
     <t>TÜİK</t>
   </si>
   <si>
+    <t>NUTS3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>#Tarım arazisi (Ekili arazi, Nadasa bırakılan arazi, ekilmeyen arazi) = işlenebilir arazi</t>
   </si>
   <si>
     <t>Agricultural land use distribution</t>
   </si>
   <si>
-    <t>ha/land_type</t>
+    <t>da</t>
+  </si>
+  <si>
+    <t>Meyveler, İçecek Ve Baharat Bitkileri Alanı - Dekar
+Nadas Alanı - Dekar
+Sebze Alanı - Dekar
+Süs Bitkileri Alanı - Dekar
+Tahıllar Ve Diğer Bitkisel Ürünlerin Alanı - Dekar</t>
   </si>
   <si>
     <t>#Tarım yapılabilen tipe göre arazi (arazi düzlüğü)</t>
@@ -64,6 +86,15 @@
     <t>degree</t>
   </si>
   <si>
+    <t>SRTM NASA &amp; Sentinel?</t>
+  </si>
+  <si>
+    <t>NUTS4</t>
+  </si>
+  <si>
+    <t>Merging two sources</t>
+  </si>
+  <si>
     <t>#Ekilebilir tarım arazisi değişimi (yapılaşma)</t>
   </si>
   <si>
@@ -73,64 +104,103 @@
     <t>%</t>
   </si>
   <si>
+    <t>Satellite Image (Sentinel 2) or TÜİK</t>
+  </si>
+  <si>
+    <t>Cultivable land area may not represent the usage</t>
+  </si>
+  <si>
     <t>#şehirleşme modeli (saçaklanma, yayılma, sıçrama) ve hızı</t>
   </si>
   <si>
+    <t>Sentinel 2</t>
+  </si>
+  <si>
+    <t>Relation between cultivable land and urbanization may differ between cities</t>
+  </si>
+  <si>
     <t>#toplu tarım arazileri sayısı (havza yönetimi)</t>
   </si>
   <si>
     <t>Mean parcel size (Categorical)</t>
   </si>
   <si>
+    <t>?Regional application?</t>
+  </si>
+  <si>
+    <t>T.C. Resmi Gazete</t>
+  </si>
+  <si>
     <t>Check eligibility for land consolidation policies.</t>
   </si>
   <si>
+    <t>Measuring the agricultural usage of land-consolidation practices</t>
+  </si>
+  <si>
     <t>#toprağın sahibinin yaşadığı yer</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Survey</t>
   </si>
   <si>
     <t>Migration of land owners</t>
   </si>
   <si>
+    <t>Fractionalization of ownership make it difficult to track</t>
+  </si>
+  <si>
     <t>#toprağın elastisitesi</t>
   </si>
   <si>
     <t>Permanent crop land area</t>
   </si>
   <si>
+    <t>Land use differences</t>
+  </si>
+  <si>
+    <t>Lagged land variable is endogenous with land-size and price expectancy.</t>
+  </si>
+  <si>
+    <t>#ortalama parsel büyüklüğü (şehirler için? ülke geneli? kişi başı veya arazi  başı?)</t>
+  </si>
+  <si>
+    <t>Mean parcel size (Regional)</t>
+  </si>
+  <si>
+    <t>da/indv</t>
+  </si>
+  <si>
+    <t>Regional land availability</t>
+  </si>
+  <si>
+    <t>Land availability will not represent land accesibility (property rights)</t>
+  </si>
+  <si>
+    <t>#parsel büyüklüğü değişimi (fragmentation)</t>
+  </si>
+  <si>
+    <t>Mean parcel size change</t>
+  </si>
+  <si>
+    <t>(time)da/indv</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Crop Type</t>
+  </si>
+  <si>
+    <t># tahıl ekilen alan::p.20</t>
+  </si>
+  <si>
+    <t>Cereal cultivated land</t>
+  </si>
+  <si>
     <t>ha</t>
   </si>
   <si>
-    <t>Long term</t>
-  </si>
-  <si>
-    <t>#ortalama parsel büyüklüğü (şehirler için? ülke geneli? kişi başı veya arazi  başı?)</t>
-  </si>
-  <si>
-    <t>Mean parcel size (Regional)</t>
-  </si>
-  <si>
-    <t>da/indv</t>
-  </si>
-  <si>
-    <t>#parsel büyüklüğü değişimi (fragmentation)</t>
-  </si>
-  <si>
-    <t>Mean parcel size change</t>
-  </si>
-  <si>
-    <t>(time)da/indv</t>
-  </si>
-  <si>
-    <t>Crop Type</t>
-  </si>
-  <si>
-    <t># tahıl ekilen alan::p.20</t>
-  </si>
-  <si>
-    <t>Cereal cultivated land</t>
+    <t>Land Use, in Cereal &amp; Legumes</t>
   </si>
   <si>
     <t>Ecology</t>
@@ -139,13 +209,28 @@
     <t>#APTS çalışmaları kapsamında kullanılan arazi kullanımı / örtüsü sınıflandırma sistemleri, tarım arazilerinin anlaşılması için gereken detaylı toprak sınıflaması anlayışından uzaktır::p.211</t>
   </si>
   <si>
+    <t>Soil type - GLOBAL</t>
+  </si>
+  <si>
+    <t>Law 5403</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/mevzuatmetin/1.5.5403.pdf,https://cevreselgostergeler.csb.gov.tr/genel-arazi-ortusu-dagilimi-i-85766</t>
+  </si>
+  <si>
+    <t>Check global references for comparison</t>
+  </si>
+  <si>
+    <t># “5403AraziTuru” kod listesi ile betimlenen “tur” özniteliğidir. Bu öznitelik aslında, elde edilen diğer veriler aracılığıyla karar verilen sınıflandırma sonucu olup, arazinin mutlak, marjinal, örtü altı, dikili ya da özel ürün tarım arazisi olması arazi kullanım planlaması kararlarını doğrudan etkilemektedir::p.215</t>
+  </si>
+  <si>
     <t>Soil type</t>
   </si>
   <si>
-    <t>Law 5403</t>
-  </si>
-  <si>
-    <t># “5403AraziTuru” kod listesi ile betimlenen “tur” özniteliğidir. Bu öznitelik aslında, elde edilen diğer veriler aracılığıyla karar verilen sınıflandırma sonucu olup, arazinin mutlak, marjinal, örtü altı, dikili ya da özel ürün tarım arazisi olması arazi kullanım planlaması kararlarını doğrudan etkilemektedir::p.215</t>
+    <t>https://www.mevzuat.gov.tr/mevzuatmetin/1.5.5403.pdf</t>
+  </si>
+  <si>
+    <t>Agricultural land classification</t>
   </si>
   <si>
     <t>#Arazi sahipliğinin karmaşıklığı? ortak arazi kullanımı?</t>
@@ -154,7 +239,10 @@
     <t>Land ownership types</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Reach organizations and cooperatives for qualitative data</t>
+  </si>
+  <si>
+    <t>Is there data?</t>
   </si>
   <si>
     <t>Governance</t>
@@ -166,12 +254,33 @@
     <t>Land registry</t>
   </si>
   <si>
+    <t>Might be outdated</t>
+  </si>
+  <si>
     <t>#CATAK destekleme kategorisi</t>
   </si>
   <si>
+    <t>Regional policy access</t>
+  </si>
+  <si>
+    <t>1 for eligible</t>
+  </si>
+  <si>
+    <t>https://www.tarimorman.gov.tr/Konular/Bitkisel-Uretim/Tarla-Ve-Bahce-Bitkileri/CATAK</t>
+  </si>
+  <si>
     <t>#Gıda Sertifikası</t>
   </si>
   <si>
+    <t>BioAgriculture</t>
+  </si>
+  <si>
+    <t>hectare,farmer count</t>
+  </si>
+  <si>
+    <t>Organic farm certificates</t>
+  </si>
+  <si>
     <t>#Bitkisel ürün tipine göre tarım arazisi büyüklüğü, oranları (crop type?)</t>
   </si>
   <si>
@@ -187,13 +296,25 @@
     <t>1 for affected city</t>
   </si>
   <si>
+    <t>Law6360</t>
+  </si>
+  <si>
+    <t>Control variable</t>
+  </si>
+  <si>
     <t># altyapı politikaları</t>
   </si>
   <si>
     <t>Infrastructure policies</t>
   </si>
   <si>
-    <t>Budget??</t>
+    <t>Max Budget for Project?</t>
+  </si>
+  <si>
+    <t>TKDK</t>
+  </si>
+  <si>
+    <t>How to understand different subtopics?</t>
   </si>
   <si>
     <t># Ziraat Odası sayısı</t>
@@ -227,6 +348,15 @@
     <t>Population count</t>
   </si>
   <si>
+    <t>https://www.ka.gov.tr/</t>
+  </si>
+  <si>
+    <t>NUTS2</t>
+  </si>
+  <si>
+    <t>What is the city-level structure of NUTS2 classification?</t>
+  </si>
+  <si>
     <t># köy envanteri kapsama alanı</t>
   </si>
   <si>
@@ -236,6 +366,15 @@
     <t>State information infrastructure</t>
   </si>
   <si>
+    <t>Muhtarlık</t>
+  </si>
+  <si>
+    <t>NUTS5</t>
+  </si>
+  <si>
+    <t>Central information system of the government</t>
+  </si>
+  <si>
     <t># çiftçi destekleme politikaları (kimler için, kimler başvurmuş, süreklilik durumu nedir)</t>
   </si>
   <si>
@@ -245,6 +384,9 @@
     <t>% of total farmers</t>
   </si>
   <si>
+    <t>https://www.resmigazete.gov.tr/eskiler/2023/09/20230915-3.pdf</t>
+  </si>
+  <si>
     <t># ürün tipine göre tarımsal destek</t>
   </si>
   <si>
@@ -284,6 +426,12 @@
     <t>Payment amount (certificate type)</t>
   </si>
   <si>
+    <t>da/düzey</t>
+  </si>
+  <si>
+    <t>https://www.tarimorman.gov.tr/Konular/Bitkisel-Uretim/Organik-Tarim/Destekler</t>
+  </si>
+  <si>
     <t># bölgeye göre tarımsal destek politikalarının farklılığı (DGD, IPARD)</t>
   </si>
   <si>
@@ -293,447 +441,571 @@
     <t>1 for city</t>
   </si>
   <si>
+    <t>https://cdniys.tarimorman.gov.tr/api/File/GetFile/330/Sayfa/1416/1778/DosyaGaleri/14._tarimsal_destekleme_politikalari.pdf, IPAARD bölgeleri</t>
+  </si>
+  <si>
     <t># tarımsal desteklerin bütçe içindeki payı</t>
   </si>
   <si>
     <t>Budget allocation</t>
   </si>
   <si>
+    <t>Strateji ve bütçe başkanlığı</t>
+  </si>
+  <si>
     <t># belediyelerin tarımsal politikalara-üretime dahil olma durumu</t>
   </si>
   <si>
     <t>Municipal participance</t>
   </si>
   <si>
+    <t>Municipality participation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">eg.   </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://tarim.ibb.istanbul/tarim-ve-su-urunleri-mudurlugu/desteklerimiz.html</t>
+    </r>
+  </si>
+  <si>
+    <t># tarımsal kamu yönetimi kuruluşları</t>
+  </si>
+  <si>
+    <t># kırsal alanın kurumsal tanımı</t>
+  </si>
+  <si>
+    <t>OECD rural definition</t>
+  </si>
+  <si>
+    <t>1 for rural area</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/statistics-explained/index.php?title=Glossary:Degree_of_urbanisation</t>
+  </si>
+  <si>
+    <t># tarımsal üretim harici tarımsal politikalar (teknolojik malzeme, gübre ve tohum, ihracat)</t>
+  </si>
+  <si>
+    <t># mevsimlere ve aylara göre yağmurun dağılımı</t>
+  </si>
+  <si>
+    <t>Rainfall (seasonal)</t>
+  </si>
+  <si>
+    <t># sel riski</t>
+  </si>
+  <si>
+    <t>Flood risk</t>
+  </si>
+  <si>
+    <t># arazilerin yağış alma miktarı</t>
+  </si>
+  <si>
+    <t>Rainfall (total by region)</t>
+  </si>
+  <si>
+    <t># doğal kaynak potansiyeli?</t>
+  </si>
+  <si>
+    <t># su kirliliği</t>
+  </si>
+  <si>
+    <t>Water pollution</t>
+  </si>
+  <si>
+    <t># iklim şartları</t>
+  </si>
+  <si>
+    <t>Climate conditions</t>
+  </si>
+  <si>
+    <t># su kaynakları</t>
+  </si>
+  <si>
+    <t>Accessible water</t>
+  </si>
+  <si>
+    <t># bitki örtüsü (yeşillik durumu)</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t># toprak tuzluluk miktarı</t>
+  </si>
+  <si>
+    <t>Soil salinity</t>
+  </si>
+  <si>
+    <t># toprak tipi-kalitesi</t>
+  </si>
+  <si>
+    <t>Soil quality</t>
+  </si>
+  <si>
+    <t># erozyon riski durumu</t>
+  </si>
+  <si>
+    <t>Erosion risk</t>
+  </si>
+  <si>
+    <t># birinci sınıf arazi oranı</t>
+  </si>
+  <si>
+    <t>Soil quality (grouped)</t>
+  </si>
+  <si>
+    <t>https://corine.tarimorman.gov.tr/corineportal/araziortususiniflari.html</t>
+  </si>
+  <si>
+    <t># 5403 sınıflandırma tipi</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/mevzuatmetin/1.5.5403.pdf,https://www.tarimorman.gov.tr/Belgeler/Mevzuat/Talimatlar/ToprakAraziSiniflamasiStandartlariTeknikTalimativeIlgiliMevzuat_yeni.pdf</t>
+  </si>
+  <si>
+    <t># ??sulu tarım susuz tarım</t>
+  </si>
+  <si>
+    <t>Irrigation use</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">TÜİK, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://data.tuik.gov.tr/Bulten/Index?p=Tarimsal--Isletme-Yapi-Arastirmasi-2016-24869</t>
+    </r>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t># tarımsal üretim miktarı değişimi (haneye veya işletmeye göre)</t>
+  </si>
+  <si>
+    <t>Agricultural output (per producer by groups)</t>
+  </si>
+  <si>
+    <t>https://data.tuik.gov.tr/Bulten/Index?p=Tarimsal--Isletme-Yapi-Arastirmasi-2016-24869</t>
+  </si>
+  <si>
+    <t># tarımsal ürün arzı (yıllara göre)</t>
+  </si>
+  <si>
+    <t>Agricultural output change (total)</t>
+  </si>
+  <si>
+    <t>https://data.tuik.gov.tr/Bulten/Index?p=Bitkisel-Uretim-1.Tahmini-2024-53449</t>
+  </si>
+  <si>
+    <t># tarımsal ürünlerin fiyatları, fiyat esnekliği (yıllara göre)</t>
+  </si>
+  <si>
+    <t>Agricultural market price change</t>
+  </si>
+  <si>
+    <t>kg/TL</t>
+  </si>
+  <si>
+    <t># tarımsal girdi fiyatları (yıllara göre)</t>
+  </si>
+  <si>
+    <t>Agricultural cost change</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>NUTS1</t>
+  </si>
+  <si>
+    <t># tarımsal kredi performansı</t>
+  </si>
+  <si>
+    <t>Agricultural loan efficiency</t>
+  </si>
+  <si>
+    <t># tarım sektörünün GSYİH-GSMH içindeki oranı</t>
+  </si>
+  <si>
+    <t>Agricultural output proportion</t>
+  </si>
+  <si>
+    <t># (network veya autonomy) üreticilerin pazarlama gücü</t>
+  </si>
+  <si>
+    <t>Agricultural market access</t>
+  </si>
+  <si>
+    <t>Survey?</t>
+  </si>
+  <si>
+    <t># arazilerde ekili ürünlerin piyasayayla ilişkisi</t>
+  </si>
+  <si>
+    <t>Agricultural market demands</t>
+  </si>
+  <si>
+    <t>Price-Crop-Land(Lagged)</t>
+  </si>
+  <si>
+    <t># yıllar içinde görülen fiyat şokları</t>
+  </si>
+  <si>
+    <t>Agricultural market schocks</t>
+  </si>
+  <si>
+    <t>Year-Crop Type</t>
+  </si>
+  <si>
+    <t># çiftçilerin risk algısı ve risk tercihi</t>
+  </si>
+  <si>
+    <t>Farmer's risk preferences</t>
+  </si>
+  <si>
+    <t># çiftçilerin market algısına göre (fiyat tahmini) ürün ekimi</t>
+  </si>
+  <si>
+    <t>Farmer's crop type preference</t>
+  </si>
+  <si>
+    <t># tarımsal gelir miktarı değişimi (haneye veya işletmeye göre)</t>
+  </si>
+  <si>
+    <t>Farmers' income in real value (per household)</t>
+  </si>
+  <si>
+    <t># Kırsal üretimde hayvansal-tarımsal üretim dağılımı</t>
+  </si>
+  <si>
+    <t>Agricultural activity type</t>
+  </si>
+  <si>
+    <t>% and Volume</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t># Reel index (CPI)</t>
+  </si>
+  <si>
+    <t>Purchasing power (region)</t>
+  </si>
+  <si>
+    <t># Kırsal hanehalkı büyüklüğü</t>
+  </si>
+  <si>
+    <t>Rural population per household change</t>
+  </si>
+  <si>
+    <t># Kırsal hanehalkı sosyo-ekonomik durumu</t>
+  </si>
+  <si>
+    <t>Rural socio-economic status</t>
+  </si>
+  <si>
+    <t># Kırsal hanehalkı mesleki durumlar, tarım dışı gelir getirici faaliyetler</t>
+  </si>
+  <si>
+    <t>Rural jobs, except agricultural sector</t>
+  </si>
+  <si>
+    <t># Kırsal hanehalkı geçim durumu değişimi, geliri, alım gücü (yıllara göre)</t>
+  </si>
+  <si>
+    <t>Purchasing power in rural over years</t>
+  </si>
+  <si>
+    <t># Hanedeki sigortalılık durumu, çiftçilerin sosyal güvencesi</t>
+  </si>
+  <si>
+    <t>Insurance coverage in rural household</t>
+  </si>
+  <si>
+    <t>https://cdniys.tarimorman.gov.tr/api/File/GetFile/330/Sayfa/1416/1778/DosyaGaleri/13._kirsal_kalkinma_ve_kirsalda_istihdam.pdf</t>
+  </si>
+  <si>
+    <t>What is insurance? What is the difference between social security and retirement?</t>
+  </si>
+  <si>
+    <t># Hanehalkı demografik durumu (yaş, cinsiyet)</t>
+  </si>
+  <si>
+    <t>Age and gender demography in rural household</t>
+  </si>
+  <si>
+    <t># Kırsal kesimde yoksulluk (bölge-şehir)</t>
+  </si>
+  <si>
+    <t>Rural poverty</t>
+  </si>
+  <si>
+    <t>https://data.tuik.gov.tr/Bulten/Index?p=Yoksulluk-ve-Yasam-Kosullari-Istatistikleri-2023-53713</t>
+  </si>
+  <si>
+    <t># Tarımsal istihdamın işteki durumu (yevmiyeli, kendi-ailesi adına, ticari üretim)</t>
+  </si>
+  <si>
+    <t>Agricultural job status</t>
+  </si>
+  <si>
+    <t>https://data.tuik.gov.tr/Bulten/Index?p=Isgucu-Istatistikleri-2022-49390</t>
+  </si>
+  <si>
+    <t># Kırsal bölgede yaşayanların tarımsal üretime katılımı % bölgedeki tarımsal istihdam</t>
+  </si>
+  <si>
+    <t>Agricultural employment (region)</t>
+  </si>
+  <si>
+    <t>https://data.tuik.gov.tr/Bulten/Index?p=Tarimsal-Isletme-Isgucu-Ucret-Yapisi-2020-2021-45783</t>
+  </si>
+  <si>
+    <t>Rural Development</t>
+  </si>
+  <si>
+    <t># Sağlık ocağı, doktor vs. sağlık olanakları</t>
+  </si>
+  <si>
+    <t>Access to health services (rural)</t>
+  </si>
+  <si>
+    <t>% of villages</t>
+  </si>
+  <si>
+    <t># Kırsal bölgeye ulaşım hizmetleri</t>
+  </si>
+  <si>
+    <t>Access to transportation (rural)</t>
+  </si>
+  <si>
+    <t># Çöp toplama (hijyen)</t>
+  </si>
+  <si>
+    <t>Access to sanitation services (rural)</t>
+  </si>
+  <si>
+    <t># Okul bulunma durumu</t>
+  </si>
+  <si>
+    <t>Access to education (rural)</t>
+  </si>
+  <si>
+    <t>Milli Eğitim Bakanlığı</t>
+  </si>
+  <si>
+    <t># Tarımsal mesleki eğitim - kırsal danışmanlık ofisleri</t>
+  </si>
+  <si>
+    <t>Access to job education</t>
+  </si>
+  <si>
+    <t>https://www.tkdk.gov.tr/Duyuru/tse-belgeli-danisman-firma-listesi-11380</t>
+  </si>
+  <si>
+    <t>What is the working area of consulting firms?</t>
+  </si>
+  <si>
+    <t># Altyapı ? (kanalizasyon)</t>
+  </si>
+  <si>
+    <t>Access to infrastructure</t>
+  </si>
+  <si>
+    <t># Tarımsal kayıtdışılık</t>
+  </si>
+  <si>
+    <t>Informal population in agricultural sector</t>
+  </si>
+  <si>
+    <t># Ticari değeri yüksek ürünler (High Value Crops)</t>
+  </si>
+  <si>
+    <t>High Value Crop</t>
+  </si>
+  <si>
+    <t># Girdisi yüksek ürünler (High barrier entry crops, mekanizasyon, gübre vs.)</t>
+  </si>
+  <si>
+    <t>High Cost Crop</t>
+  </si>
+  <si>
+    <t>Measure and scale of production needs national statistics</t>
+  </si>
+  <si>
+    <t># Hububat, Bakliyat, Sebze ve Meyve, Yağlı Yohumlar, Sanayi Bitkileri, Süs Bitkileri</t>
+  </si>
+  <si>
+    <t>Crop types</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t># Depolanabilir ürünler</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>Needs definition</t>
+  </si>
+  <si>
+    <t># Ürün tipine göre finansal verimlilik</t>
+  </si>
+  <si>
+    <t>Return of input</t>
+  </si>
+  <si>
+    <t>Check high value crops</t>
+  </si>
+  <si>
+    <t># İhraç edilen türler, ithal edilen türler - Küresel geleneksel ihracat ürünleri</t>
+  </si>
+  <si>
+    <t>Export-Import distribution</t>
+  </si>
+  <si>
+    <t># Hasat sayısı, hasat süresi</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Meteoroloji Genel Müdürlüğü</t>
+  </si>
+  <si>
+    <t># Tarımsal işçi emeği yoğun ürünler</t>
+  </si>
+  <si>
+    <t>Proxy- Mechanization</t>
+  </si>
+  <si>
+    <t>Check crop production conditions</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t># Akaryakıt fiyatı</t>
+  </si>
+  <si>
+    <t>Energy, lubricants</t>
+  </si>
+  <si>
+    <t>https://data.tuik.gov.tr/Bulten/Index?p=Tar%C4%B1msal-Girdi-Fiyat-Endeksi-Mart-2024-53467&amp;dil=1</t>
+  </si>
+  <si>
+    <t># Tohumluk, fide, fidan ithalatı ve ihracatı, fiyatları</t>
+  </si>
+  <si>
+    <t>Seed trade</t>
+  </si>
+  <si>
+    <t>Import-Export</t>
+  </si>
+  <si>
+    <t>https://www.tarimorman.gov.tr/Konular/Bitkisel-Uretim/Tohumculuk/Tohumculuk-Istatistikleri</t>
+  </si>
+  <si>
+    <t># Gayrimenkul yatırımı</t>
+  </si>
+  <si>
+    <t>Land prices</t>
+  </si>
+  <si>
+    <t>Rent-Acquisition</t>
+  </si>
+  <si>
+    <t>?Real Estate Websites</t>
+  </si>
+  <si>
+    <t># Gübre ve tarım ilacı kullanım miktarı</t>
+  </si>
+  <si>
+    <t>Fertilizer and pesticide prices</t>
+  </si>
+  <si>
+    <t># Birim ürün maliyeti</t>
+  </si>
+  <si>
+    <t>Crop production cost</t>
+  </si>
+  <si>
+    <t># İşçi maliyeti</t>
+  </si>
+  <si>
+    <t>Labor cost</t>
+  </si>
+  <si>
+    <t># Mekanizasyon maliyeti</t>
+  </si>
+  <si>
+    <t>Machinery costs</t>
+  </si>
+  <si>
+    <t># Girdi ihtiyaçlarının karşılanma menşeinin oranı</t>
+  </si>
+  <si>
+    <t>Input origin</t>
+  </si>
+  <si>
+    <t>Check mech,seed,fuel etc costs</t>
+  </si>
+  <si>
+    <t>Ana grup ve alt gruplara göre Tarım GFE ve aylık-yıllık değişim oranları</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t># Tarımsal kredilere yönelik uygulamalar</t>
+  </si>
+  <si>
+    <t>Farm loan programs</t>
+  </si>
+  <si>
+    <t>Coverage-Real value</t>
+  </si>
+  <si>
+    <t>https://www.resmigazete.gov.tr/eskiler/2024/05/20240501-2.htm</t>
+  </si>
+  <si>
+    <t># Tarımda kredi kullanımı oranı</t>
+  </si>
+  <si>
+    <t>Farm loan use</t>
+  </si>
+  <si>
+    <t>https://www.tarimkredi.org.tr/media/a0gfbz0q/faaliyet_raporu_2023.pdf</t>
+  </si>
+  <si>
+    <t># Tarımsal kredilerinin ürün tipine göre dağılımı</t>
+  </si>
+  <si>
+    <t>Farm loan by crop type</t>
+  </si>
+  <si>
     <t>Coverage</t>
   </si>
   <si>
-    <t># tarımsal kamu yönetimi kuruluşları</t>
-  </si>
-  <si>
-    <t># kırsal alanın kurumsal tanımı</t>
-  </si>
-  <si>
-    <t>OECD rural definition</t>
-  </si>
-  <si>
-    <t>1 for rural area</t>
-  </si>
-  <si>
-    <t># tarımsal üretim harici tarımsal politikalar (teknolojik malzeme, gübre ve tohum, ihracat)</t>
-  </si>
-  <si>
-    <t># mevsimlere ve aylara göre yağmurun dağılımı</t>
-  </si>
-  <si>
-    <t>Rainfall (seasonal)</t>
-  </si>
-  <si>
-    <t># sel riski</t>
-  </si>
-  <si>
-    <t>Flood risk</t>
-  </si>
-  <si>
-    <t># arazilerin yağış alma miktarı</t>
-  </si>
-  <si>
-    <t>Rainfall (total by region)</t>
-  </si>
-  <si>
-    <t># doğal kaynak potansiyeli?</t>
-  </si>
-  <si>
-    <t># su kirliliği</t>
-  </si>
-  <si>
-    <t>Water pollution</t>
-  </si>
-  <si>
-    <t># iklim şartları</t>
-  </si>
-  <si>
-    <t>Climate conditions</t>
-  </si>
-  <si>
-    <t># su kaynakları</t>
-  </si>
-  <si>
-    <t>Accessible water</t>
-  </si>
-  <si>
-    <t># bitki örtüsü (yeşillik durumu)</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t># toprak tuzluluk miktarı</t>
-  </si>
-  <si>
-    <t>Soil salinity</t>
-  </si>
-  <si>
-    <t># toprak tipi-kalitesi</t>
-  </si>
-  <si>
-    <t>Soil quality</t>
-  </si>
-  <si>
-    <t># erozyon riski durumu</t>
-  </si>
-  <si>
-    <t>Erosion risk</t>
-  </si>
-  <si>
-    <t># birinci sınıf arazi oranı</t>
-  </si>
-  <si>
-    <t>Soil quality (grouped)</t>
-  </si>
-  <si>
-    <t># 5403 sınıflandırma tipi</t>
-  </si>
-  <si>
-    <t># ??sulu tarım susuz tarım</t>
-  </si>
-  <si>
-    <t>Irrigation use</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t># tarımsal üretim miktarı değişimi (haneye veya işletmeye göre)</t>
-  </si>
-  <si>
-    <t>Agricultural output (per producer by groups)</t>
-  </si>
-  <si>
-    <t># tarımsal ürün arzı (yıllara göre)</t>
-  </si>
-  <si>
-    <t>Agricultural output change (total)</t>
-  </si>
-  <si>
-    <t># tarımsal ürünlerin fiyatları, fiyat esnekliği (yıllara göre)</t>
-  </si>
-  <si>
-    <t>Agricultural market price change</t>
-  </si>
-  <si>
-    <t># tarımsal girdi fiyatları (yıllara göre)</t>
-  </si>
-  <si>
-    <t>Agricultural cost change</t>
-  </si>
-  <si>
-    <t># tarımsal kredi performansı</t>
-  </si>
-  <si>
-    <t>Agricultural loan efficiency</t>
-  </si>
-  <si>
-    <t># tarım sektörünün GSYİH-GSMH içindeki oranı</t>
-  </si>
-  <si>
-    <t>Agricultural output proportion</t>
-  </si>
-  <si>
-    <t># (network veya autonomy) üreticilerin pazarlama gücü</t>
-  </si>
-  <si>
-    <t>Agricultural market access</t>
-  </si>
-  <si>
-    <t># arazilerde ekili ürünlerin piyasayayla ilişkisi</t>
-  </si>
-  <si>
-    <t>Agricultural market demands</t>
-  </si>
-  <si>
-    <t>Price-Crop-Land(Lagged)</t>
-  </si>
-  <si>
-    <t># yıllar içinde görülen fiyat şokları</t>
-  </si>
-  <si>
-    <t>Agricultural market schocks</t>
-  </si>
-  <si>
-    <t>Year-Crop Type</t>
-  </si>
-  <si>
-    <t># çiftçilerin risk algısı ve risk tercihi</t>
-  </si>
-  <si>
-    <t>Farmer's risk preferences</t>
-  </si>
-  <si>
-    <t># çiftçilerin market algısına göre (fiyat tahmini) ürün ekimi</t>
-  </si>
-  <si>
-    <t>Farmer's crop type preference</t>
-  </si>
-  <si>
-    <t># tarımsal gelir miktarı değişimi (haneye veya işletmeye göre)</t>
-  </si>
-  <si>
-    <t>Farmers' income in real value (per household)</t>
-  </si>
-  <si>
-    <t># Kırsal üretimde hayvansal-tarımsal üretim dağılımı</t>
-  </si>
-  <si>
-    <t>Agricultural activity type</t>
-  </si>
-  <si>
-    <t>Household</t>
-  </si>
-  <si>
-    <t># Reel index (CPI)</t>
-  </si>
-  <si>
-    <t>Purchasing power (region)</t>
-  </si>
-  <si>
-    <t># Kırsal hanehalkı büyüklüğü</t>
-  </si>
-  <si>
-    <t>Rural population per household change</t>
-  </si>
-  <si>
-    <t># Kırsal hanehalkı sosyo-ekonomik durumu</t>
-  </si>
-  <si>
-    <t>Rural socio-economic status</t>
-  </si>
-  <si>
-    <t># Kırsal hanehalkı mesleki durumlar, tarım dışı gelir getirici faaliyetler</t>
-  </si>
-  <si>
-    <t>Rural jobs, except agricultural sector</t>
-  </si>
-  <si>
-    <t># Kırsal hanehalkı geçim durumu değişimi, geliri, alım gücü (yıllara göre)</t>
-  </si>
-  <si>
-    <t>Purchasing power in rural over years</t>
-  </si>
-  <si>
-    <t># Hanedeki sigortalılık durumu, çiftçilerin sosyal güvencesi</t>
-  </si>
-  <si>
-    <t>Insurance coverage in rural household</t>
-  </si>
-  <si>
-    <t># Hanehalkı demografik durumu (yaş, cinsiyet)</t>
-  </si>
-  <si>
-    <t>Age and gender demography in rural household</t>
-  </si>
-  <si>
-    <t># Kırsal kesimde yoksulluk (bölge-şehir)</t>
-  </si>
-  <si>
-    <t>Rural poverty</t>
-  </si>
-  <si>
-    <t># Tarımsal istihdamın işteki durumu (yevmiyeli, kendi-ailesi adına, ticari üretim)</t>
-  </si>
-  <si>
-    <t>Agricultural job status</t>
-  </si>
-  <si>
-    <t># Kırsal bölgede yaşayanların tarımsal üretime katılımı % bölgedeki tarımsal istihdam</t>
-  </si>
-  <si>
-    <t>Agricultural employment (region)</t>
-  </si>
-  <si>
-    <t>Rural Development</t>
-  </si>
-  <si>
-    <t># Sağlık ocağı, doktor vs. sağlık olanakları</t>
-  </si>
-  <si>
-    <t>Access to health services (rural)</t>
-  </si>
-  <si>
-    <t>% of villages</t>
-  </si>
-  <si>
-    <t># Kırsal bölgeye ulaşım hizmetleri</t>
-  </si>
-  <si>
-    <t>Access to transportation (rural)</t>
-  </si>
-  <si>
-    <t># Çöp toplama (hijyen)</t>
-  </si>
-  <si>
-    <t>Access to sanitation services (rural)</t>
-  </si>
-  <si>
-    <t># Okul bulunma durumu</t>
-  </si>
-  <si>
-    <t>Access to education (rural)</t>
-  </si>
-  <si>
-    <t># Tarımsal mesleki eğitim - kırsal danışmanlık ofisleri</t>
-  </si>
-  <si>
-    <t>Access to job education</t>
-  </si>
-  <si>
-    <t># Altyapı ? (kanalizasyon)</t>
-  </si>
-  <si>
-    <t>Access to infrastructure</t>
-  </si>
-  <si>
-    <t># Tarımsal kayıtdışılık</t>
-  </si>
-  <si>
-    <t>Informal population in agricultural sector</t>
-  </si>
-  <si>
-    <t># Ticari değeri yüksek ürünler (High Value Crops)</t>
-  </si>
-  <si>
-    <t>High Value Crop</t>
-  </si>
-  <si>
-    <t># Girdisi yüksek ürünler (High barrier entry crops, mekanizasyon, gübre vs.)</t>
-  </si>
-  <si>
-    <t>High Cost Crop</t>
-  </si>
-  <si>
-    <t># Hububat, Bakliyat, Sebze ve Meyve, Yağlı Yohumlar, Sanayi Bitkileri, Süs Bitkileri</t>
-  </si>
-  <si>
-    <t>Crop types</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t># Depolanabilir ürünler</t>
-  </si>
-  <si>
-    <t>Durability</t>
-  </si>
-  <si>
-    <t># Ürün tipine göre finansal verimlilik</t>
-  </si>
-  <si>
-    <t>Return of input</t>
-  </si>
-  <si>
-    <t># İhraç edilen türler, ithal edilen türler - Küresel geleneksel ihracat ürünleri</t>
-  </si>
-  <si>
-    <t>Export-Import distribution</t>
-  </si>
-  <si>
-    <t># Hasat sayısı, hasat süresi</t>
-  </si>
-  <si>
-    <t>Rotation</t>
-  </si>
-  <si>
-    <t># Tarımsal işçi emeği yoğun ürünler</t>
-  </si>
-  <si>
-    <t>Manual labor intensity</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t># Akaryakıt fiyatı</t>
-  </si>
-  <si>
-    <t>Fuel prices</t>
-  </si>
-  <si>
-    <t># Tohumluk, fide, fidan ithalatı ve ihracatı, fiyatları</t>
-  </si>
-  <si>
-    <t>Seed prices</t>
-  </si>
-  <si>
-    <t>Import-Export distribution</t>
-  </si>
-  <si>
-    <t># Gayrimenkul yatırımı</t>
-  </si>
-  <si>
-    <t>Land prices</t>
-  </si>
-  <si>
-    <t>Rent-Acquisition</t>
-  </si>
-  <si>
-    <t># Gübre ve tarım ilacı kullanım miktarı</t>
-  </si>
-  <si>
-    <t>Fertilizer and pesticide prices</t>
-  </si>
-  <si>
-    <t># Birim ürün maliyeti</t>
-  </si>
-  <si>
-    <t>Crop production cost</t>
-  </si>
-  <si>
-    <t># İşçi maliyeti</t>
-  </si>
-  <si>
-    <t>Labor cost</t>
-  </si>
-  <si>
-    <t># Mekanizasyon maliyeti</t>
-  </si>
-  <si>
-    <t>Machinery costs</t>
-  </si>
-  <si>
-    <t># Girdi ihtiyaçlarının karşılanma menşeinin oranı</t>
-  </si>
-  <si>
-    <t>Input origin</t>
-  </si>
-  <si>
-    <t>National-Import</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t># Tarımsal kredilere yönelik uygulamalar</t>
-  </si>
-  <si>
-    <t>Farm loan programs</t>
-  </si>
-  <si>
-    <t>Coverage-Real value</t>
-  </si>
-  <si>
-    <t># Tarımda kredi kullanımı oranı</t>
-  </si>
-  <si>
-    <t>Farm loan use</t>
-  </si>
-  <si>
-    <t># Tarımsal kredilerinin ürün tipine göre dağılımı</t>
-  </si>
-  <si>
-    <t>Farm loan by crop type</t>
-  </si>
-  <si>
     <t># Tarımsal kredi kullanımının bölgesel dağılımı</t>
   </si>
   <si>
@@ -752,6 +1024,9 @@
     <t>Farm loan organizations</t>
   </si>
   <si>
+    <t>https://www.tarimkredi.org.tr/gundem/duyurular/mikro-olcekli-yatirim-programi-teklif-cagrisi/</t>
+  </si>
+  <si>
     <t># Tarımda verimlilik oranı (faiz oranına göre)</t>
   </si>
   <si>
@@ -764,6 +1039,9 @@
     <t>Insurance coverage in agricultural sector</t>
   </si>
   <si>
+    <t>https://data.tuik.gov.tr/Bulten/Index?p=Devlet-Destekli-Tarim-Sigortalari-2023-53495, TARSİM https://www.tarsim.gov.tr/staticweb/krm-web/mevzuatlar/tarife-ve-talimatlar/2024/kbkvs-tarife-talimatlar.pdf</t>
+  </si>
+  <si>
     <t># Bütçede tarımsal desteğe ayrılan oran</t>
   </si>
   <si>
@@ -776,6 +1054,9 @@
     <t>Taxes in agricultural sector</t>
   </si>
   <si>
+    <t>https://www.turmob.org.tr/Arsiv/FCKEditor/userfiles/file/GIB-2023-REHBERLER/2023_ziraikazancrehber.pdf</t>
+  </si>
+  <si>
     <t>Demography</t>
   </si>
   <si>
@@ -818,6 +1099,9 @@
     <t>Usable water</t>
   </si>
   <si>
+    <t>Municipalities</t>
+  </si>
+  <si>
     <t># Tarımda kullanılan su miktarı, hane kullanım miktarı, sanayi kullanım miktarı</t>
   </si>
   <si>
@@ -896,6 +1180,9 @@
     <t>Job education</t>
   </si>
   <si>
+    <t>https://www.tarimorman.gov.tr/Konular/Egitim-Ve-Yayim/Ciftci-Egitimi-Calismalari</t>
+  </si>
+  <si>
     <t># Kooperatif dışı çiftçi ailelerin iş birliği durumu</t>
   </si>
   <si>
@@ -932,6 +1219,9 @@
     <t>Support policy access (regional)</t>
   </si>
   <si>
+    <t>Resmi Gazete</t>
+  </si>
+  <si>
     <t># Bölgesel tarım üretiminin ülke içindeki payı</t>
   </si>
   <si>
@@ -944,6 +1234,9 @@
     <t>Regional variables (check land use, market, finance)</t>
   </si>
   <si>
+    <t>TÜİK, TOB</t>
+  </si>
+  <si>
     <t># Bölgeye göre hayvansal ve bitkisel üretim değişimi</t>
   </si>
   <si>
@@ -959,6 +1252,9 @@
     <t>Mechanization in agriculture (regional)</t>
   </si>
   <si>
+    <t>Market data?</t>
+  </si>
+  <si>
     <t># Bölgedeki işgücü ve istihdam</t>
   </si>
   <si>
@@ -974,12 +1270,18 @@
     <t>Industrial agriculture</t>
   </si>
   <si>
+    <t>Sentinel2</t>
+  </si>
+  <si>
     <t># Ziraat ve zirai tesislerinin dağılımı (girdi satış yeri, tohum, depolama)</t>
   </si>
   <si>
     <t>Market facility distances</t>
   </si>
   <si>
+    <t>ZOB</t>
+  </si>
+  <si>
     <t># İşleme tesislerinin uzaklığı</t>
   </si>
   <si>
@@ -1022,6 +1324,9 @@
     <t>Chemical input use (regional, crop)</t>
   </si>
   <si>
+    <t>TÜİK, ?</t>
+  </si>
+  <si>
     <t># Atık üretiminin bölgesel - ürünsel dağılımı</t>
   </si>
   <si>
@@ -1079,6 +1384,9 @@
     <t>meter</t>
   </si>
   <si>
+    <t>SRTM</t>
+  </si>
+  <si>
     <t># Köylerin arazi yapısı - engebe ve dağlık alanlar durumu</t>
   </si>
   <si>
@@ -1115,6 +1423,9 @@
     <t>R&amp;D Investment</t>
   </si>
   <si>
+    <t>https://data.tuik.gov.tr/Bulten/Index?p=Merkezi-Yonetim-Butcesinden-AR-GE-Faaliyetleri-Icin-Ayrilan-Odenek-ve-Harcamalar-2024-53799</t>
+  </si>
+  <si>
     <t># Hayvancılıkta mekanizasyon</t>
   </si>
   <si>
@@ -1145,6 +1456,9 @@
     <t>Tech Capital - Autonomy</t>
   </si>
   <si>
+    <t>TAGEM?</t>
+  </si>
+  <si>
     <t># Hayvansal gıdanın ithalat-ihracat dengesi</t>
   </si>
   <si>
@@ -1160,6 +1474,9 @@
     <t>Cooperative distribution</t>
   </si>
   <si>
+    <t>https://www.tarimorman.gov.tr/TRGM/Belgeler/Tar%C4%B1msal%20%C3%96rg%C3%BCtlenme%20Tablosu_05.06.2018_.pdf</t>
+  </si>
+  <si>
     <t># Tarım satış kooperatiflerinin alış-satış miktarı</t>
   </si>
   <si>
@@ -1272,13 +1589,34 @@
   </si>
   <si>
     <t># Gelir düzeyleri - tarımsal ve ulusal</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Kamu ve Özel Sektör Üretim Payları (Tarım Orman Bakanlığı</t>
+  </si>
+  <si>
+    <t>Public-private seed production</t>
+  </si>
+  <si>
+    <t>YURT İÇİNE ARZ EDİLEN SERTİFİKALI TOHUM MİKTARI (TON)</t>
+  </si>
+  <si>
+    <t>Total Seed</t>
+  </si>
+  <si>
+    <t>Tonne</t>
+  </si>
+  <si>
+    <t>https://www.sbb.gov.tr/tarim-ve-gida-gostergeleri/#prettyPhoto[rel-16770-617331487]/0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1298,7 +1636,31 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1306,7 +1668,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1343,6 +1705,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1350,7 +1718,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1377,21 +1745,46 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1633,2813 +2026,3655 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="3"/>
       <c r="U1" s="4"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="3"/>
       <c r="X1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="Y1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>76</v>
+        <v>121</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="H26" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="18"/>
       <c r="I26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="P26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="T26" s="4"/>
+      <c r="S26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="V26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Z26" s="4"/>
+      <c r="Y26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AC26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AD26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="9"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="9"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="9"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="9"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G36" s="9"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>98</v>
+        <v>148</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="14"/>
-      <c r="H37" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="18"/>
       <c r="I37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="P37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="T37" s="4"/>
+      <c r="S37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="W37" s="4"/>
+      <c r="V37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Z37" s="4"/>
+      <c r="Y37" s="4"/>
       <c r="AA37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AD37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G38" s="9"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="9"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="9"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="9"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="F42" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="9"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="9"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="9"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="9"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="9"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="9"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="9"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="9"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="9"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52" s="9"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="9"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="9"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="9"/>
+        <v>194</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" s="9"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="9"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" s="9"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G59" s="9"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F60" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="9"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" s="9"/>
+        <v>208</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="9"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="9"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F63" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" s="9"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" s="9"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="9"/>
+        <v>217</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="9"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="9"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="9"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" s="9"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="9"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="9"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="9"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="9"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="9"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="9"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F76" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="9"/>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="F77" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G77" s="9"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="10"/>
-      <c r="F78" s="9"/>
+        <v>251</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G78" s="9"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F79" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="9"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="9"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G82" s="9"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="9"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" s="9"/>
+        <v>270</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="9"/>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F86" s="9"/>
+        <v>272</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F87" s="9"/>
+        <v>275</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F88" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="9"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F89" s="9"/>
+        <v>280</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G89" s="9"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F90" s="9"/>
+        <v>283</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>212</v>
+        <v>286</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" s="9"/>
+        <v>194</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G91" s="9"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F92" s="9"/>
+        <v>291</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G92" s="9"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F93" s="9"/>
+        <v>295</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G93" s="9"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="9"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F95" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="9"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G96" s="9"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97" s="9"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F98" s="9"/>
+        <v>307</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G98" s="9"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F99" s="9"/>
+        <v>312</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G99" s="9"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G100" s="9"/>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F101" s="9"/>
+        <v>319</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" s="9"/>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F102" s="9"/>
+        <v>319</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G102" s="9"/>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="9"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G104" s="9"/>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F105" s="9"/>
+        <v>275</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="9"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F106" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G107" s="9"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G108" s="9"/>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F109" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="9"/>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F110" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="9"/>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F111" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="9"/>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="9"/>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F113" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="9"/>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F114" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="9"/>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="9"/>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F116" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="9"/>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="9"/>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F118" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" s="9"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F119" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G119" s="9"/>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F120" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="9"/>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G121" s="9"/>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F122" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G122" s="9"/>
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F123" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G123" s="9"/>
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G124" s="9"/>
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F125" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G125" s="9"/>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F126" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="G126" s="9"/>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F127" s="9"/>
+        <v>381</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G127" s="9"/>
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F128" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G128" s="9"/>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F129" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G129" s="9"/>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F130" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G130" s="9"/>
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D131" s="10"/>
-      <c r="F131" s="9"/>
+        <v>390</v>
+      </c>
+      <c r="D131" s="20"/>
+      <c r="E131" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G131" s="9"/>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="9"/>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G133" s="9"/>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="9"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="9"/>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F136" s="9"/>
+        <v>402</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="9"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F137" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G137" s="9"/>
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F138" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="5" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F139" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G139" s="9"/>
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F140" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G140" s="9"/>
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>322</v>
+        <v>414</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F141" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="9"/>
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F142" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="9"/>
     </row>
     <row r="143">
       <c r="A143" s="5" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F143" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G143" s="9"/>
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>328</v>
+        <v>420</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F144" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="9"/>
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F145" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="9"/>
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F146" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G146" s="9"/>
     </row>
     <row r="147">
       <c r="A147" s="5" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>334</v>
+        <v>427</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>335</v>
+        <v>428</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F147" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="9"/>
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>337</v>
+        <v>430</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F148" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G148" s="9"/>
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F149" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G149" s="9"/>
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F150" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G150" s="9"/>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>344</v>
+        <v>437</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F151" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G151" s="9"/>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>345</v>
+        <v>438</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>346</v>
+        <v>439</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F152" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="9"/>
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>348</v>
+        <v>441</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>349</v>
+        <v>442</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F153" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G153" s="9"/>
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>350</v>
+        <v>443</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>351</v>
+        <v>444</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="F154" s="9"/>
+        <v>445</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G154" s="9"/>
     </row>
     <row r="155">
       <c r="A155" s="5" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F155" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G155" s="9"/>
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F156" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="9"/>
     </row>
     <row r="157">
       <c r="A157" s="5" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F157" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G157" s="9"/>
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F158" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="9"/>
     </row>
     <row r="159">
       <c r="A159" s="5" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>361</v>
+        <v>455</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F159" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="9"/>
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>363</v>
+        <v>457</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F160" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F160" s="7"/>
+      <c r="G160" s="9"/>
     </row>
     <row r="161">
       <c r="A161" s="5" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>365</v>
+        <v>460</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>366</v>
+        <v>461</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F161" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="9"/>
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>368</v>
+        <v>463</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>369</v>
+        <v>464</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F162" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" s="9"/>
     </row>
     <row r="163">
       <c r="A163" s="5" t="s">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>370</v>
+        <v>465</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>371</v>
+        <v>466</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F163" s="9"/>
+        <v>467</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="9"/>
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>374</v>
+        <v>469</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F164" s="9"/>
+        <v>467</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G164" s="9"/>
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>375</v>
+        <v>471</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F165" s="9"/>
+        <v>467</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="9"/>
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>379</v>
+        <v>475</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F166" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G166" s="9"/>
     </row>
     <row r="167">
       <c r="A167" s="5" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F167" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G167" s="9"/>
     </row>
     <row r="168">
       <c r="A168" s="5" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>383</v>
+        <v>480</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F168" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="G168" s="9"/>
     </row>
     <row r="169">
       <c r="A169" s="5" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>384</v>
+        <v>481</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F169" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="G169" s="9"/>
     </row>
     <row r="170">
       <c r="A170" s="5" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F170" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G170" s="9"/>
     </row>
     <row r="171">
       <c r="A171" s="5" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>387</v>
+        <v>484</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F171" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="G171" s="9"/>
     </row>
     <row r="172">
       <c r="A172" s="5" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>391</v>
+        <v>488</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F172" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G172" s="9"/>
     </row>
     <row r="173">
       <c r="A173" s="5" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>391</v>
+        <v>488</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G173" s="9"/>
     </row>
     <row r="174">
       <c r="A174" s="5" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>393</v>
+        <v>490</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F174" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G174" s="9"/>
     </row>
     <row r="175">
       <c r="A175" s="5" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F175" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="G175" s="9"/>
     </row>
     <row r="176">
       <c r="A176" s="5" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>398</v>
+        <v>495</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F176" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G176" s="9"/>
     </row>
     <row r="177">
       <c r="A177" s="5" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>399</v>
+        <v>496</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="F177" s="9"/>
+        <v>498</v>
+      </c>
+      <c r="G177" s="9"/>
     </row>
     <row r="178">
       <c r="A178" s="5" t="s">
-        <v>402</v>
+        <v>499</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>403</v>
+        <v>500</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D178" s="10"/>
-      <c r="F178" s="9"/>
+        <v>501</v>
+      </c>
+      <c r="D178" s="20"/>
+      <c r="G178" s="9"/>
     </row>
     <row r="179">
       <c r="A179" s="5" t="s">
-        <v>402</v>
+        <v>499</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>405</v>
+        <v>502</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F179" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G179" s="9"/>
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
-        <v>402</v>
+        <v>499</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>406</v>
+        <v>503</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>407</v>
+        <v>504</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F180" s="9"/>
+        <v>467</v>
+      </c>
+      <c r="G180" s="9"/>
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
-        <v>408</v>
+        <v>505</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>409</v>
+        <v>506</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>410</v>
+        <v>507</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F181" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="G181" s="24"/>
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
-        <v>408</v>
+        <v>505</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>410</v>
+        <v>507</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F182" s="16" t="s">
-        <v>412</v>
+        <v>56</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="5" t="s">
-        <v>413</v>
+        <v>510</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>414</v>
+        <v>511</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>415</v>
+        <v>512</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F183" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="G183" s="9"/>
     </row>
     <row r="184">
       <c r="A184" s="5" t="s">
-        <v>416</v>
+        <v>513</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F184" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G184" s="9"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="E189" s="14" t="s">
+        <v>521</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E22"/>
-    <hyperlink r:id="rId2" ref="F182"/>
+    <hyperlink r:id="rId1" ref="E13"/>
+    <hyperlink r:id="rId2" ref="E14"/>
+    <hyperlink r:id="rId3" ref="E17"/>
+    <hyperlink r:id="rId4" ref="E22"/>
+    <hyperlink r:id="rId5" ref="E23"/>
+    <hyperlink r:id="rId6" ref="E25"/>
+    <hyperlink r:id="rId7" ref="E26"/>
+    <hyperlink r:id="rId8" ref="E32"/>
+    <hyperlink r:id="rId9" ref="E33"/>
+    <hyperlink r:id="rId10" ref="E35"/>
+    <hyperlink r:id="rId11" ref="E37"/>
+    <hyperlink r:id="rId12" ref="E50"/>
+    <hyperlink r:id="rId13" ref="E51"/>
+    <hyperlink r:id="rId14" ref="E52"/>
+    <hyperlink r:id="rId15" ref="E53"/>
+    <hyperlink r:id="rId16" ref="E54"/>
+    <hyperlink r:id="rId17" ref="E71"/>
+    <hyperlink r:id="rId18" ref="E73"/>
+    <hyperlink r:id="rId19" ref="E74"/>
+    <hyperlink r:id="rId20" ref="E75"/>
+    <hyperlink r:id="rId21" ref="E80"/>
+    <hyperlink r:id="rId22" ref="E91"/>
+    <hyperlink r:id="rId23" ref="E92"/>
+    <hyperlink r:id="rId24" ref="E96"/>
+    <hyperlink r:id="rId25" ref="E99"/>
+    <hyperlink r:id="rId26" ref="E100"/>
+    <hyperlink r:id="rId27" ref="E104"/>
+    <hyperlink r:id="rId28" ref="E108"/>
+    <hyperlink r:id="rId29" ref="E126"/>
+    <hyperlink r:id="rId30" ref="E149"/>
+    <hyperlink r:id="rId31" ref="E150"/>
+    <hyperlink r:id="rId32" ref="E160"/>
+    <hyperlink r:id="rId33" ref="E166"/>
+    <hyperlink r:id="rId34" ref="E176"/>
+    <hyperlink r:id="rId35" ref="G182"/>
+    <hyperlink r:id="rId36" ref="E187"/>
+    <hyperlink r:id="rId37" ref="E188"/>
+    <hyperlink r:id="rId38" location="prettyPhoto[rel-16770-617331487]/0" ref="E189"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>